--- a/DungeonShooting_Godot/excel/Sound.xlsx
+++ b/DungeonShooting_Godot/excel/Sound.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -430,6 +430,60 @@
   </si>
   <si>
     <t>金币</t>
+  </si>
+  <si>
+    <t>enemy_hurt</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/enemy/EnemyHurt.ogg</t>
+  </si>
+  <si>
+    <t>怪物受伤音效</t>
+  </si>
+  <si>
+    <t>enemy_die</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/enemy/Enemydie.mp3</t>
+  </si>
+  <si>
+    <t>怪物死亡爆果汁音效</t>
+  </si>
+  <si>
+    <t>role_hurt</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/player/RoleHurt.mp3</t>
+  </si>
+  <si>
+    <t>角色受伤音效</t>
+  </si>
+  <si>
+    <t>role_die</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/player/RoleDie.mp3</t>
+  </si>
+  <si>
+    <t>角色死亡音效</t>
+  </si>
+  <si>
+    <t>role_rolling</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/player/Rolling.mp3</t>
+  </si>
+  <si>
+    <t>角色翻滚</t>
+  </si>
+  <si>
+    <t>role_pickup</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/role/player/PickupWeapon.mp3</t>
+  </si>
+  <si>
+    <t>角色按E交互捡起</t>
   </si>
 </sst>
 </file>
@@ -1415,22 +1469,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.9181818181818" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0181818181818" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.9545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.2307692307692" style="1" customWidth="1"/>
+    <col min="2" max="2" width="64.9134615384615" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.0192307692308" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.9519230769231" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
@@ -1503,7 +1557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" ht="14" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" ht="14" customHeight="1" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1531,7 +1585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" ht="14" customHeight="1" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1545,7 +1599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" ht="14" customHeight="1" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" ht="14" customHeight="1" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" ht="14" customHeight="1" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1587,7 +1641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" ht="14" customHeight="1" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" ht="14" customHeight="1" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" ht="14" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" ht="14" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1643,7 +1697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" ht="14" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1657,9 +1711,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" customHeight="1"/>
-    <row r="18" customHeight="1"/>
-    <row r="19" customHeight="1"/>
+    <row r="17" ht="14" customHeight="1"/>
+    <row r="18" ht="14" customHeight="1"/>
+    <row r="19" ht="14" customHeight="1"/>
     <row r="20" ht="13" customHeight="1" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>45</v>
@@ -1912,7 +1966,7 @@
     <row r="44" ht="13" customHeight="1"/>
     <row r="45" ht="13" customHeight="1"/>
     <row r="46" ht="13" customHeight="1"/>
-    <row r="47" spans="1:3">
+    <row r="47" ht="17" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1923,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="17" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
@@ -1934,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="17" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -1945,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" ht="17" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -1959,7 +2013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" ht="17" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -1973,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" ht="17" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -1987,7 +2041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" ht="17" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -2001,7 +2055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" ht="17" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -2015,7 +2069,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" ht="17" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -2029,7 +2083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" ht="17" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -2043,7 +2097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" ht="17" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
@@ -2057,7 +2111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="17" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
@@ -2071,7 +2125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="17" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
@@ -2085,7 +2139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="17" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -2099,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="17" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -2113,7 +2167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" ht="17" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -2127,7 +2181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" ht="17" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -2138,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="17" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>118</v>
       </c>
@@ -2152,7 +2206,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="17" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>121</v>
       </c>
@@ -2166,7 +2220,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="17" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>123</v>
       </c>
@@ -2180,7 +2234,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="17" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
@@ -2194,7 +2248,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="17" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -2206,6 +2260,90 @@
       </c>
       <c r="D74" s="2" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="76" ht="17" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" ht="17" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" ht="17" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" ht="17" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" ht="17" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" ht="17" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2362,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2241,7 +2379,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
